--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Insurance-Claim-Automation-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>28.12.17</t>
   </si>
@@ -65,9 +65,6 @@
     <t>documentation on rules on claiming insurance</t>
   </si>
   <si>
-    <t>sriram</t>
-  </si>
-  <si>
     <t>dummy application creation</t>
   </si>
   <si>
@@ -87,13 +84,31 @@
   </si>
   <si>
     <t>absent</t>
+  </si>
+  <si>
+    <t>2.1.18</t>
+  </si>
+  <si>
+    <t>Updating Fields in Application</t>
+  </si>
+  <si>
+    <t>INSURANCE CLAIM ASSESSMENT AND APPROVAL AUTOMATION SYSTEM</t>
+  </si>
+  <si>
+    <t>11:00 to 16:00</t>
+  </si>
+  <si>
+    <t>11:00 to 14:30</t>
+  </si>
+  <si>
+    <t>SRIRAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +123,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +159,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,10 +177,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,12 +191,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -509,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,22 +603,47 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"""in progress"""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -621,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -630,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -697,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5"/>
     </row>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>28.12.17</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>SRIRAM</t>
+  </si>
+  <si>
+    <t>14:00 to 16:00</t>
+  </si>
+  <si>
+    <t>UiPath Course</t>
+  </si>
+  <si>
+    <t>56% Completed</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +645,17 @@
       </c>
       <c r="F5" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>28.12.17</t>
   </si>
@@ -86,9 +86,6 @@
     <t>absent</t>
   </si>
   <si>
-    <t>2.1.18</t>
-  </si>
-  <si>
     <t>Updating Fields in Application</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>11:00 to 14:30</t>
   </si>
   <si>
-    <t>SRIRAM</t>
-  </si>
-  <si>
     <t>14:00 to 16:00</t>
   </si>
   <si>
@@ -111,13 +105,45 @@
   </si>
   <si>
     <t>56% Completed</t>
+  </si>
+  <si>
+    <t>11:00 to 12:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automated application login and scrape data fetched from database. Written those scraped data into a csv file using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity</t>
+    </r>
+  </si>
+  <si>
+    <t>28-12-2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +168,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,8 +234,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -567,104 +608,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43132</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"""in progress"""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>28.12.17</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>14:00 to 16:00</t>
-  </si>
-  <si>
-    <t>UiPath Course</t>
   </si>
   <si>
     <t>56% Completed</t>
@@ -136,7 +133,10 @@
     </r>
   </si>
   <si>
-    <t>28-12-2017</t>
+    <t>75% Completed</t>
+  </si>
+  <si>
+    <t>UiPath Course - 1</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,6 +243,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,20 +633,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -648,8 +654,8 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+      <c r="B4" s="8">
+        <v>43462</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -666,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>43132</v>
+        <v>43102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -685,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -696,16 +702,33 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>28.12.17</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>UiPath Course - 1</t>
+  </si>
+  <si>
+    <t>11:30 to 13:30</t>
+  </si>
+  <si>
+    <t>Completed UiPATH course and obtained Certificate</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +255,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -614,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +736,23 @@
       </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43108</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>28.12.17</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Completed UiPATH course and obtained Certificate</t>
+  </si>
+  <si>
+    <t>13:30 to 16:00</t>
+  </si>
+  <si>
+    <t>Modified Application form</t>
   </si>
 </sst>
 </file>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +759,17 @@
       </c>
       <c r="E9" s="13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>28.12.17</t>
   </si>
@@ -148,7 +148,16 @@
     <t>13:30 to 16:00</t>
   </si>
   <si>
-    <t>Modified Application form</t>
+    <t>11:00 to 14:00</t>
+  </si>
+  <si>
+    <t>Modified claim Application form</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +775,38 @@
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>28.12.17</t>
   </si>
@@ -159,12 +159,39 @@
   <si>
     <t>Problem Solving</t>
   </si>
+  <si>
+    <t>11:30 to 17:00</t>
+  </si>
+  <si>
+    <t>Configured Mail using outlook mail</t>
+  </si>
+  <si>
+    <t>Template for mail</t>
+  </si>
+  <si>
+    <t>13:00 to 17:00</t>
+  </si>
+  <si>
+    <t>Configured mail with attachments</t>
+  </si>
+  <si>
+    <t>13:00 to 14:00</t>
+  </si>
+  <si>
+    <t>14:00 to 17:00</t>
+  </si>
+  <si>
+    <t>Filtering Data from excel</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +228,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +265,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -241,12 +280,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,8 +311,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +849,71 @@
       </c>
       <c r="E12" s="13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>28.12.17</t>
   </si>
@@ -184,7 +184,40 @@
     <t>Filtering Data from excel</t>
   </si>
   <si>
-    <t>started</t>
+    <t>11:00 to 17:00</t>
+  </si>
+  <si>
+    <t>Started New workflows and removed older</t>
+  </si>
+  <si>
+    <t>Created Database and Started Working</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Fetched values from db and written in a Excel Sheet</t>
+  </si>
+  <si>
+    <t>Validated the policy number in claim and policy tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked with NCB check </t>
+  </si>
+  <si>
+    <t>Calculated Difference for Ws amt and Insured</t>
+  </si>
+  <si>
+    <t>16:00 to 17:30</t>
+  </si>
+  <si>
+    <t>Meeting with mentor at KGFSL</t>
+  </si>
+  <si>
+    <t>Worked with Vehicle Data and Mail</t>
+  </si>
+  <si>
+    <t>Tested the workflow for Vehicle Market Value check and Fixed Bugs</t>
   </si>
 </sst>
 </file>
@@ -678,9 +711,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +946,154 @@
         <v>43</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43136</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43137</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43139</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43145</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9">
+        <v>43146</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Insurance-Claim-Automation-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="praba" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="sudharshan" sheetId="4" r:id="rId3"/>
     <sheet name="prabhakar" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>28.12.17</t>
   </si>
@@ -219,12 +214,45 @@
   <si>
     <t>Tested the workflow for Vehicle Market Value check and Fixed Bugs</t>
   </si>
+  <si>
+    <t xml:space="preserve">30 pecent </t>
+  </si>
+  <si>
+    <t>54 percent</t>
+  </si>
+  <si>
+    <t>100 percent</t>
+  </si>
+  <si>
+    <t>studying variables in claim process</t>
+  </si>
+  <si>
+    <t>policy number check</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>studying claim rules</t>
+  </si>
+  <si>
+    <t>scrapping data of market value from online source</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading vechicle details </t>
+  </si>
+  <si>
+    <t>checking vechicle estimation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,21 +659,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -655,12 +683,12 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -680,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -700,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="E8" s="3"/>
     </row>
   </sheetData>
@@ -710,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -725,12 +753,12 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="11" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -747,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -764,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -781,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -794,7 +822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -811,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -828,7 +856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -845,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -856,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -873,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
@@ -884,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -901,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>8</v>
       </c>
@@ -918,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -935,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>10</v>
       </c>
@@ -949,7 +977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -963,7 +991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>12</v>
       </c>
@@ -980,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -997,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1014,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1031,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1048,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1062,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1079,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1108,14 +1136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
@@ -1124,12 +1152,12 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1175,28 +1203,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1233,6 +1262,324 @@
         <v>18</v>
       </c>
       <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9">
+        <v>43150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="praba" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>28.12.17</t>
   </si>
@@ -215,37 +215,61 @@
     <t>Tested the workflow for Vehicle Market Value check and Fixed Bugs</t>
   </si>
   <si>
-    <t xml:space="preserve">30 pecent </t>
-  </si>
-  <si>
-    <t>54 percent</t>
-  </si>
-  <si>
-    <t>100 percent</t>
-  </si>
-  <si>
-    <t>studying variables in claim process</t>
-  </si>
-  <si>
-    <t>policy number check</t>
-  </si>
-  <si>
-    <t>incomplete</t>
-  </si>
-  <si>
-    <t>studying claim rules</t>
-  </si>
-  <si>
-    <t>scrapping data of market value from online source</t>
-  </si>
-  <si>
-    <t>dropped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reading vechicle details </t>
-  </si>
-  <si>
-    <t>checking vechicle estimation</t>
+    <t>UiPath course - 1</t>
+  </si>
+  <si>
+    <t>40 percent</t>
+  </si>
+  <si>
+    <t>50 percent</t>
+  </si>
+  <si>
+    <t>60 percent</t>
+  </si>
+  <si>
+    <t>80 percent</t>
+  </si>
+  <si>
+    <t>Variables declaring in bot</t>
+  </si>
+  <si>
+    <t>90 percent</t>
+  </si>
+  <si>
+    <t>Policy no DB maintenance</t>
+  </si>
+  <si>
+    <t>Final Test</t>
+  </si>
+  <si>
+    <t>100 Percent</t>
+  </si>
+  <si>
+    <t>Policy no check</t>
+  </si>
+  <si>
+    <t>Finded duplicate values and eliminates it</t>
+  </si>
+  <si>
+    <t>Mail sending using SMTP</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>Mail sending using Outlook</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Send mail for duplicate values</t>
+  </si>
+  <si>
+    <t>Maitaining the database for cars</t>
+  </si>
+  <si>
+    <t>Estimating the workshop price</t>
   </si>
 </sst>
 </file>
@@ -741,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,6 +1161,358 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1145,75 +1521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
@@ -1263,324 +1571,6 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <v>43103</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>43104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>43108</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9">
-        <v>43109</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43124</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43125</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43129</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9">
-        <v>43136</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9">
-        <v>43137</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9">
-        <v>43139</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9">
-        <v>43140</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="C22" s="9">
-        <v>43144</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9">
-        <v>43145</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9">
-        <v>43146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9">
-        <v>43150</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>28.12.17</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Tested the workflow for Vehicle Market Value check and Fixed Bugs</t>
+  </si>
+  <si>
+    <t>Worked on Receive mail and tried to filter mails with subject: IMPORTANT</t>
   </si>
 </sst>
 </file>
@@ -711,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1097,23 @@
       </c>
       <c r="E25" s="13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="praba" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
   <si>
     <t>28.12.17</t>
   </si>
@@ -270,6 +270,27 @@
   </si>
   <si>
     <t>Estimating the workshop price</t>
+  </si>
+  <si>
+    <t>30 percent</t>
+  </si>
+  <si>
+    <t>68 percent</t>
+  </si>
+  <si>
+    <t>vechicle market value calulation</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t>check vechicle estimation</t>
+  </si>
+  <si>
+    <t>difference calculation</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -683,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1220,7 +1241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1242,7 +1263,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1296,7 +1317,7 @@
     <row r="10" spans="1:6">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1313,7 +1334,7 @@
     <row r="12" spans="1:6">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1330,7 +1351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1347,7 +1368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1367,7 +1388,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1401,7 +1422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1449,7 +1470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1472,7 +1493,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1489,7 +1510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1513,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1571,6 +1592,292 @@
       </c>
       <c r="F4" s="5"/>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>28.12.17</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>Worked on Receive mail and tried to filter mails with subject: IMPORTANT</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Re structured and integrated the workflow</t>
+  </si>
+  <si>
+    <t>Starded working on DB</t>
+  </si>
+  <si>
+    <t>Tried to get a value through text box and printed in next page</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>Review Preparation</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
+  </si>
+  <si>
+    <t>EXAM</t>
   </si>
 </sst>
 </file>
@@ -714,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,6 +1138,137 @@
       </c>
       <c r="E26" s="12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>43152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>43153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>43154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>43155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>43156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>43157</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>43158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>43159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>43160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>43161</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>43162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>43163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>43164</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>43165</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <v>43166</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>28.12.17</t>
   </si>
@@ -245,6 +245,33 @@
   </si>
   <si>
     <t>EXAM</t>
+  </si>
+  <si>
+    <t>Created forms and tried to push values to database through forms</t>
+  </si>
+  <si>
+    <t>automated data update in database through forms</t>
+  </si>
+  <si>
+    <t>Found bugs in data entry and trying to resolve it</t>
+  </si>
+  <si>
+    <t>Found alternative method for pushing data to database through build data table</t>
+  </si>
+  <si>
+    <t>Implemented build datatable method for data pushing</t>
+  </si>
+  <si>
+    <t>Found errors in pushing data</t>
+  </si>
+  <si>
+    <t>Trying to resolve bugs</t>
+  </si>
+  <si>
+    <t>Resolved bugs</t>
+  </si>
+  <si>
+    <t>Integrating project and debugging</t>
   </si>
 </sst>
 </file>
@@ -738,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>43157</v>
       </c>
@@ -1199,7 +1226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>43158</v>
       </c>
@@ -1207,7 +1234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>43159</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>43160</v>
       </c>
@@ -1223,7 +1250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>43161</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>43162</v>
       </c>
@@ -1239,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>43163</v>
       </c>
@@ -1247,7 +1274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>43164</v>
       </c>
@@ -1255,7 +1282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>43165</v>
       </c>
@@ -1263,12 +1290,180 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>43166</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>43167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>43168</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>43170</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
+        <v>43171</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="9">
+        <v>43172</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
+        <v>43173</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
+        <v>43174</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>43175</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>43176</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>43178</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>43179</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
+        <v>43180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
+        <v>43181</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <v>43182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
+        <v>43183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>43184</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>43185</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/work_done.xlsx
+++ b/work_done.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Insurance-Claim-Automation-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="praba" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="sudharshan" sheetId="4" r:id="rId3"/>
     <sheet name="prabhakar" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="72">
   <si>
     <t>28.12.17</t>
   </si>
@@ -78,12 +73,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>prabhakar</t>
-  </si>
-  <si>
-    <t>absent</t>
   </si>
   <si>
     <t>Updating Fields in Application</t>
@@ -277,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,12 +362,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -406,7 +394,27 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -473,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,21 +693,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -709,12 +717,12 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -734,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -750,12 +758,12 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A1048552" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -779,696 +787,696 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>43462</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>43102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>43103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>43104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>43108</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>43109</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5">
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>43124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>43125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>43129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>11</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>43136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>43137</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>43138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>43139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>43140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>43144</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>43145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>43146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
       <c r="A26">
         <v>20</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>43151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="8">
+        <v>43152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="8">
+        <v>43153</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E28" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="8">
+        <v>43154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <v>43152</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>43153</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <v>43154</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="31" spans="1:5">
+      <c r="B31" s="8">
+        <v>43155</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+    <row r="32" spans="1:5">
+      <c r="B32" s="8">
+        <v>43156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="8">
+        <v>43157</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <v>43155</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="8">
+        <v>43158</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <v>43156</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="8">
+        <v>43159</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
-        <v>43157</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="36" spans="2:5">
+      <c r="B36" s="8">
+        <v>43160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="8">
+        <v>43161</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="8">
+        <v>43162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8">
+        <v>43163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="8">
+        <v>43164</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
-        <v>43158</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="8">
+        <v>43165</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="8">
+        <v>43166</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30">
+      <c r="B43" s="8">
+        <v>43167</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <v>43159</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
-        <v>43160</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <v>43161</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
-        <v>43162</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
-        <v>43163</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
-        <v>43164</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30">
+      <c r="B44" s="8">
+        <v>43168</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
-        <v>43165</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
-        <v>43166</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
-        <v>43167</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30">
+      <c r="B45" s="8">
+        <v>43170</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
-        <v>43168</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
-        <v>43170</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
+    <row r="46" spans="2:5" ht="30">
+      <c r="B46" s="8">
         <v>43171</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+    <row r="47" spans="2:5" ht="30">
+      <c r="B47" s="8">
         <v>43172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="9">
+    <row r="48" spans="2:5" ht="30">
+      <c r="B48" s="8">
         <v>43173</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="30">
+      <c r="B49" s="8">
+        <v>43174</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="8">
+        <v>43175</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
-        <v>43174</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
-        <v>43175</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="9">
+    <row r="51" spans="2:5">
+      <c r="B51" s="8">
         <v>43176</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="9">
+    <row r="52" spans="2:5">
+      <c r="B52" s="8">
         <v>43177</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+    <row r="53" spans="2:5">
+      <c r="B53" s="8">
         <v>43178</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
+    <row r="54" spans="2:5">
+      <c r="B54" s="8">
         <v>43179</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
+    <row r="55" spans="2:5">
+      <c r="B55" s="8">
         <v>43180</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="8">
         <v>43181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="8">
         <v>43182</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="8">
         <v>43183</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="8">
         <v>43184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="8">
         <v>43185</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"""in progress"""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1478,14 +1486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
@@ -1494,12 +1502,12 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1535,7 +1543,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1545,28 +1553,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1577,34 +1585,789 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7">
+        <v>43462</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="180">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43108</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <v>43129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43136</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43137</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43139</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="B24" s="8">
+        <v>43145</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43146</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43157</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
+      <c r="B35" s="8">
+        <v>43159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" s="8">
+        <v>43160</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8">
+        <v>43161</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="8">
+        <v>43162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="B39" s="8">
+        <v>43163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" s="8">
+        <v>43164</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>35</v>
+      </c>
+      <c r="B41" s="8">
+        <v>43165</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8">
+        <v>43166</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="1">
+        <v>37</v>
+      </c>
+      <c r="B43" s="8">
+        <v>43167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8">
+        <v>43168</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="1">
+        <v>39</v>
+      </c>
+      <c r="B45" s="8">
+        <v>43170</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43171</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="1">
+        <v>41</v>
+      </c>
+      <c r="B47" s="8">
+        <v>43172</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="105">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43173</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" s="1">
+        <v>43</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43174</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43175</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>47</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43178</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43179</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>49</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" s="8">
+        <v>43181</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>51</v>
+      </c>
+      <c r="B57" s="8">
+        <v>43182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>53</v>
+      </c>
+      <c r="B59" s="8">
+        <v>43184</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" s="8">
+        <v>43185</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"""in progress"""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>